--- a/Assets/ProjectD/TableExcel/CharExcel.xlsx
+++ b/Assets/ProjectD/TableExcel/CharExcel.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectD\Assets\ProjectD\TableExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5063683-A086-41B9-A943-90AC1E4E5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15075" yWindow="3150" windowWidth="14340" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15080" yWindow="3150" windowWidth="14340" windowHeight="9230"/>
   </bookViews>
   <sheets>
-    <sheet name="CharUpgradeSheet" sheetId="2" r:id="rId1"/>
-    <sheet name="UpgradeMaterialSheet" sheetId="3" r:id="rId2"/>
+    <sheet name="CharSheet" sheetId="4" r:id="rId1"/>
+    <sheet name="CharUpgradeSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="LevelExpSheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,27 +31,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Junk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
+    <t>CharId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -189,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -366,105 +369,246 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF6CF8D-BE1F-48E4-A326-C28FEA70C805}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2.1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2.4</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>10007</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2.6</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
@@ -474,126 +618,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35B3A26-E557-4586-A4DB-A5124A0C6B83}">
-  <dimension ref="A1:D8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
